--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,55 +428,55 @@
         <v>destination</v>
       </c>
       <c r="I1" t="str">
+        <v>itineraire</v>
+      </c>
+      <c r="J1" t="str">
+        <v>driverId</v>
+      </c>
+      <c r="K1" t="str">
+        <v>driverName</v>
+      </c>
+      <c r="L1" t="str">
+        <v>driverCIN</v>
+      </c>
+      <c r="M1" t="str">
+        <v>driverPhone</v>
+      </c>
+      <c r="N1" t="str">
+        <v>vehicleMatricule</v>
+      </c>
+      <c r="O1" t="str">
+        <v>vehicleModel</v>
+      </c>
+      <c r="P1" t="str">
+        <v>convoyeurId</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>convoyeurName</v>
+      </c>
+      <c r="R1" t="str">
+        <v>convoyeurCard</v>
+      </c>
+      <c r="S1" t="str">
+        <v>convoyeurCIN</v>
+      </c>
+      <c r="T1" t="str">
+        <v>convoyeurPhone</v>
+      </c>
+      <c r="U1" t="str">
+        <v>passavantNumber</v>
+      </c>
+      <c r="V1" t="str">
+        <v>passavantExpiry</v>
+      </c>
+      <c r="W1" t="str">
+        <v>bonLivraison</v>
+      </c>
+      <c r="X1" t="str">
         <v>antenne</v>
       </c>
-      <c r="J1" t="str">
-        <v>itineraire</v>
-      </c>
-      <c r="K1" t="str">
-        <v>driverId</v>
-      </c>
-      <c r="L1" t="str">
-        <v>driverName</v>
-      </c>
-      <c r="M1" t="str">
-        <v>driverCIN</v>
-      </c>
-      <c r="N1" t="str">
-        <v>driverPhone</v>
-      </c>
-      <c r="O1" t="str">
-        <v>vehicleMatricule</v>
-      </c>
-      <c r="P1" t="str">
-        <v>vehicleModel</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>convoyeurId</v>
-      </c>
-      <c r="R1" t="str">
-        <v>convoyeurName</v>
-      </c>
-      <c r="S1" t="str">
-        <v>convoyeurCard</v>
-      </c>
-      <c r="T1" t="str">
-        <v>convoyeurCIN</v>
-      </c>
-      <c r="U1" t="str">
-        <v>convoyeurPhone</v>
-      </c>
-      <c r="V1" t="str">
+      <c r="Y1" t="str">
         <v>products</v>
-      </c>
-      <c r="W1" t="str">
-        <v>passavantNumber</v>
-      </c>
-      <c r="X1" t="str">
-        <v>passavantExpiry</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>bonLivraison</v>
       </c>
     </row>
     <row r="2">
@@ -505,54 +505,48 @@
         <v>Warehouse B</v>
       </c>
       <c r="I2" t="str">
-        <v>Antenne 2</v>
-      </c>
-      <c r="J2" t="str">
         <v>Point D, Point E, Point F</v>
       </c>
-      <c r="K2">
+      <c r="J2">
         <v>4</v>
       </c>
+      <c r="K2" t="str">
+        <v>oudra</v>
+      </c>
       <c r="L2" t="str">
-        <v>oudra</v>
+        <v>p3608237</v>
       </c>
       <c r="M2" t="str">
-        <v>p3608237</v>
+        <v>0567233893</v>
       </c>
       <c r="N2" t="str">
-        <v>0567233893</v>
+        <v>sdgas556</v>
       </c>
       <c r="O2" t="str">
-        <v>sdgas556</v>
-      </c>
-      <c r="P2" t="str">
         <v>volvo</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>2</v>
       </c>
+      <c r="Q2" t="str">
+        <v>Youssef Alaoui</v>
+      </c>
       <c r="R2" t="str">
-        <v>Youssef Alaoui</v>
+        <v>CCE002</v>
       </c>
       <c r="S2" t="str">
-        <v>CCE002</v>
+        <v>YA333444</v>
       </c>
       <c r="T2" t="str">
-        <v>YA333444</v>
+        <v>0656789012</v>
       </c>
       <c r="U2" t="str">
-        <v>0656789012</v>
+        <v>23423432</v>
       </c>
       <c r="V2" t="str">
-        <v>[{"name":"Produit A","quantity":"23","unit":"Kg"}]</v>
+        <v>2025-12-25</v>
       </c>
       <c r="W2" t="str">
-        <v>23423432</v>
-      </c>
-      <c r="X2" t="str">
-        <v>2025-12-25</v>
-      </c>
-      <c r="Y2" t="str">
         <v>43324</v>
       </c>
     </row>
@@ -582,55 +576,52 @@
         <v>ABC Warehouse</v>
       </c>
       <c r="I3" t="str">
+        <v>Route 1, Route 2</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="str">
+        <v>oudra</v>
+      </c>
+      <c r="L3" t="str">
+        <v>p3608237</v>
+      </c>
+      <c r="M3" t="str">
+        <v>0567233893</v>
+      </c>
+      <c r="N3" t="str">
+        <v>sdgas556</v>
+      </c>
+      <c r="O3" t="str">
+        <v>volvo</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Omar Tazi</v>
+      </c>
+      <c r="R3" t="str">
+        <v>CCE001</v>
+      </c>
+      <c r="S3" t="str">
+        <v>OT111222</v>
+      </c>
+      <c r="T3" t="str">
+        <v>0645678901</v>
+      </c>
+      <c r="U3" t="str">
+        <v>234234</v>
+      </c>
+      <c r="V3" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="W3" t="str">
+        <v>34324</v>
+      </c>
+      <c r="X3" t="str">
         <v>Antenne 3</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Route 1, Route 2</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="str">
-        <v>oudra</v>
-      </c>
-      <c r="M3" t="str">
-        <v>p3608237</v>
-      </c>
-      <c r="N3" t="str">
-        <v>0567233893</v>
-      </c>
-      <c r="O3" t="str">
-        <v>sdgas556</v>
-      </c>
-      <c r="P3" t="str">
-        <v>volvo</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="str">
-        <v>Omar Tazi</v>
-      </c>
-      <c r="S3" t="str">
-        <v>CCE001</v>
-      </c>
-      <c r="T3" t="str">
-        <v>OT111222</v>
-      </c>
-      <c r="U3" t="str">
-        <v>0645678901</v>
-      </c>
-      <c r="V3" t="str">
-        <v>[{"name":"Produit D","quantity":"2","unit":"Tonnes"}]</v>
-      </c>
-      <c r="W3" t="str">
-        <v>234234</v>
-      </c>
-      <c r="X3" t="str">
-        <v>2025-12-26</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>34324</v>
       </c>
     </row>
     <row r="4">
@@ -659,60 +650,131 @@
         <v>ABC Warehouse</v>
       </c>
       <c r="I4" t="str">
-        <v>Antenne 3</v>
-      </c>
-      <c r="J4" t="str">
         <v>Route 1, Route 2</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4" t="str">
+        <v>Ahmed Benali</v>
+      </c>
       <c r="L4" t="str">
-        <v>Ahmed Benali</v>
+        <v>AB123456</v>
       </c>
       <c r="M4" t="str">
-        <v>AB123456</v>
+        <v>0612345678</v>
       </c>
       <c r="N4" t="str">
-        <v>0612345678</v>
+        <v/>
       </c>
       <c r="O4" t="str">
         <v/>
       </c>
-      <c r="P4" t="str">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Omar Tazi</v>
+      </c>
+      <c r="R4" t="str">
+        <v>CCE001</v>
+      </c>
+      <c r="S4" t="str">
+        <v>OT111222</v>
+      </c>
+      <c r="T4" t="str">
+        <v>0645678901</v>
+      </c>
+      <c r="U4" t="str">
+        <v>234234</v>
+      </c>
+      <c r="V4" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="W4" t="str">
+        <v>34324</v>
+      </c>
+      <c r="X4" t="str">
+        <v>Antenne 3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1766961828533</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2025-12-28T22:43:48.533Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>26/2025</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2025-12-03</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-12-19T23:43</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>SFI</v>
+      </c>
+      <c r="H5" t="str">
+        <v>SFI Depot</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Point A, Point B, Point C</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Ahmed Benali</v>
+      </c>
+      <c r="L5" t="str">
+        <v>AB123456</v>
+      </c>
+      <c r="M5" t="str">
+        <v>0612345678</v>
+      </c>
+      <c r="N5" t="str">
         <v/>
       </c>
-      <c r="Q4">
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="R4" t="str">
+      <c r="Q5" t="str">
         <v>Omar Tazi</v>
       </c>
-      <c r="S4" t="str">
+      <c r="R5" t="str">
         <v>CCE001</v>
       </c>
-      <c r="T4" t="str">
+      <c r="S5" t="str">
         <v>OT111222</v>
       </c>
-      <c r="U4" t="str">
+      <c r="T5" t="str">
         <v>0645678901</v>
       </c>
-      <c r="V4" t="str">
-        <v>[{"name":"Produit D","quantity":"2","unit":"Tonnes"}]</v>
-      </c>
-      <c r="W4" t="str">
-        <v>234234</v>
-      </c>
-      <c r="X4" t="str">
-        <v>2025-12-26</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>34324</v>
+      <c r="U5" t="str">
+        <v>1221</v>
+      </c>
+      <c r="V5" t="str">
+        <v>2025-12-12</v>
+      </c>
+      <c r="W5" t="str">
+        <v>121212</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>[{"name":"Produit A","quantity":"410","unit":"Kg"}]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Y4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,57 +473,57 @@
         <v>bonLivraison</v>
       </c>
       <c r="X1" t="str">
+        <v>products</v>
+      </c>
+      <c r="Y1" t="str">
         <v>antenne</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>products</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1766599794753</v>
+        <v>1766968380862</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-12-24T18:09:54.753Z</v>
+        <v>2025-12-29T00:33:00.862Z</v>
       </c>
       <c r="C2" t="str">
-        <v>10/2025</v>
+        <v>64/2025</v>
       </c>
       <c r="D2" t="str">
-        <v>2025-12-24</v>
+        <v>2025-12-29</v>
       </c>
       <c r="E2" t="str">
-        <v>2025-12-24T07:09</v>
+        <v>2025-12-29T01:32</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>Client B</v>
+        <v>SFI</v>
       </c>
       <c r="H2" t="str">
-        <v>Warehouse B</v>
+        <v>SFI Depot</v>
       </c>
       <c r="I2" t="str">
-        <v>Point D, Point E, Point F</v>
+        <v>Point A, Point B, Point C</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
-        <v>oudra</v>
+        <v>Ahmed Benali</v>
       </c>
       <c r="L2" t="str">
-        <v>p3608237</v>
+        <v>AB123456</v>
       </c>
       <c r="M2" t="str">
-        <v>0567233893</v>
+        <v>0612345678</v>
       </c>
       <c r="N2" t="str">
-        <v>sdgas556</v>
+        <v/>
       </c>
       <c r="O2" t="str">
-        <v>volvo</v>
+        <v/>
       </c>
       <c r="P2">
         <v>2</v>
@@ -541,60 +541,60 @@
         <v>0656789012</v>
       </c>
       <c r="U2" t="str">
-        <v>23423432</v>
+        <v>123354</v>
       </c>
       <c r="V2" t="str">
-        <v>2025-12-25</v>
+        <v>2025-12-29</v>
       </c>
       <c r="W2" t="str">
-        <v>43324</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1766597982396</v>
+        <v>1766967545955</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-12-24T17:39:42.396Z</v>
+        <v>2025-12-29T00:19:05.955Z</v>
       </c>
       <c r="C3" t="str">
-        <v>6/2025</v>
+        <v>63/2025</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-12-25</v>
+        <v>2025-12-29</v>
       </c>
       <c r="E3" t="str">
-        <v>2025-12-06T18:21</v>
+        <v>2025-12-30T01:19</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
-        <v>ABC Company</v>
+        <v>Client B</v>
       </c>
       <c r="H3" t="str">
-        <v>ABC Warehouse</v>
+        <v>Warehouse B</v>
       </c>
       <c r="I3" t="str">
-        <v>Route 1, Route 2</v>
+        <v>Point D, Point E, Point F</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>oudra</v>
+        <v>Ahmed Benali</v>
       </c>
       <c r="L3" t="str">
-        <v>p3608237</v>
+        <v>AB123456</v>
       </c>
       <c r="M3" t="str">
-        <v>0567233893</v>
+        <v>0612345678</v>
       </c>
       <c r="N3" t="str">
-        <v>sdgas556</v>
+        <v/>
       </c>
       <c r="O3" t="str">
-        <v>volvo</v>
+        <v/>
       </c>
       <c r="P3">
         <v>1</v>
@@ -612,57 +612,54 @@
         <v>0645678901</v>
       </c>
       <c r="U3" t="str">
-        <v>234234</v>
+        <v>123</v>
       </c>
       <c r="V3" t="str">
-        <v>2025-12-26</v>
+        <v>2025-12-30</v>
       </c>
       <c r="W3" t="str">
-        <v>34324</v>
-      </c>
-      <c r="X3" t="str">
-        <v>Antenne 3</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1766596896691</v>
+        <v>1766966886972</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-12-24T17:21:36.691Z</v>
+        <v>2025-12-29T00:08:06.972Z</v>
       </c>
       <c r="C4" t="str">
-        <v>6/2025</v>
+        <v>58/2025</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-12-25</v>
+        <v>2025-12-29</v>
       </c>
       <c r="E4" t="str">
-        <v>2025-12-06T18:21</v>
+        <v>2025-12-29T04:07</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>ABC Company</v>
+        <v>Client B</v>
       </c>
       <c r="H4" t="str">
-        <v>ABC Warehouse</v>
+        <v>Warehouse B</v>
       </c>
       <c r="I4" t="str">
-        <v>Route 1, Route 2</v>
+        <v>Point D, Point E, Point F</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="str">
-        <v>Ahmed Benali</v>
+        <v>Mohamed Alami</v>
       </c>
       <c r="L4" t="str">
-        <v>AB123456</v>
+        <v>MA789012</v>
       </c>
       <c r="M4" t="str">
-        <v>0612345678</v>
+        <v>0623456789</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -671,110 +668,681 @@
         <v/>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="str">
-        <v>Omar Tazi</v>
+        <v>Youssef Alaoui</v>
       </c>
       <c r="R4" t="str">
-        <v>CCE001</v>
+        <v>CCE002</v>
       </c>
       <c r="S4" t="str">
-        <v>OT111222</v>
+        <v>YA333444</v>
       </c>
       <c r="T4" t="str">
-        <v>0645678901</v>
+        <v>0656789012</v>
       </c>
       <c r="U4" t="str">
-        <v>234234</v>
+        <v>123654</v>
       </c>
       <c r="V4" t="str">
-        <v>2025-12-26</v>
+        <v>2025-12-29</v>
       </c>
       <c r="W4" t="str">
-        <v>34324</v>
-      </c>
-      <c r="X4" t="str">
-        <v>Antenne 3</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>1766965845790</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2025-12-28T23:50:45.790Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>47/2025</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-12-29T00:50</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <v>test</v>
+      </c>
+      <c r="H5" t="str">
+        <v>tax</v>
+      </c>
+      <c r="I5" t="str">
+        <v>w, e, r, ty</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="L5" t="str">
+        <v>sdasd</v>
+      </c>
+      <c r="M5" t="str">
+        <v>23213213</v>
+      </c>
+      <c r="N5" t="str">
+        <v>23213213</v>
+      </c>
+      <c r="O5" t="str">
+        <v>dsfsf</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>Karim Bensaid</v>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v>KB555666</v>
+      </c>
+      <c r="T5" t="str">
+        <v>0667890123</v>
+      </c>
+      <c r="U5" t="str">
+        <v>1231213123</v>
+      </c>
+      <c r="V5" t="str">
+        <v>2025-12-30</v>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1766965000850</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2025-12-28T23:36:40.850Z</v>
+      </c>
+      <c r="C6" t="str">
+        <v>44/2025</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2025-12-30</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-12-29T00:36</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Client B</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Warehouse B</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Point D, Point E, Point F</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Ahmed Benali</v>
+      </c>
+      <c r="L6" t="str">
+        <v>AB123456</v>
+      </c>
+      <c r="M6" t="str">
+        <v>0612345678</v>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>Omar Tazi</v>
+      </c>
+      <c r="R6" t="str">
+        <v>CCE001</v>
+      </c>
+      <c r="S6" t="str">
+        <v>OT111222</v>
+      </c>
+      <c r="T6" t="str">
+        <v>0645678901</v>
+      </c>
+      <c r="U6" t="str">
+        <v>234231</v>
+      </c>
+      <c r="V6" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="W6" t="str">
+        <v>232132222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1766962587835</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2025-12-28T22:56:27.835Z</v>
+      </c>
+      <c r="C7" t="str">
+        <v>32/2025</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-12-19</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2025-12-28T23:56</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>SFI</v>
+      </c>
+      <c r="H7" t="str">
+        <v>SFI Depot</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Point A, Point B, Point C</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Hassan Idrissi</v>
+      </c>
+      <c r="L7" t="str">
+        <v>HI345678</v>
+      </c>
+      <c r="M7" t="str">
+        <v>0634567890</v>
+      </c>
+      <c r="N7" t="str">
+        <v>sdfsdf</v>
+      </c>
+      <c r="O7" t="str">
+        <v>dsfdsf</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>Karim Bensaid</v>
+      </c>
+      <c r="R7" t="str">
+        <v>3rwedfds</v>
+      </c>
+      <c r="S7" t="str">
+        <v>KB555666</v>
+      </c>
+      <c r="T7" t="str">
+        <v>0667890123</v>
+      </c>
+      <c r="U7" t="str">
+        <v>435435</v>
+      </c>
+      <c r="V7" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="W7" t="str">
+        <v>435435</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1766962497326</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2025-12-28T22:54:57.326Z</v>
+      </c>
+      <c r="C8" t="str">
+        <v>29/2025</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2025-12-28T23:58</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Client B</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Warehouse B</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Point D, Point E, Point F</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Ahmed Benali</v>
+      </c>
+      <c r="L8" t="str">
+        <v>AB123456</v>
+      </c>
+      <c r="M8" t="str">
+        <v>0612345678</v>
+      </c>
+      <c r="N8" t="str">
+        <v>ewrer</v>
+      </c>
+      <c r="O8" t="str">
+        <v>dsfsdfsdf</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Youssef Alaoui</v>
+      </c>
+      <c r="R8" t="str">
+        <v>CCE002</v>
+      </c>
+      <c r="S8" t="str">
+        <v>YA333444</v>
+      </c>
+      <c r="T8" t="str">
+        <v>0656789012</v>
+      </c>
+      <c r="U8" t="str">
+        <v>34234</v>
+      </c>
+      <c r="V8" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="W8" t="str">
+        <v>32432555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1766962428401</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2025-12-28T22:53:48.401Z</v>
+      </c>
+      <c r="C9" t="str">
+        <v>28/2025</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2025-12-28T23:53</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Client B</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Warehouse B</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Point D, Point E, Point F</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Mohamed Alami</v>
+      </c>
+      <c r="L9" t="str">
+        <v>MA789012</v>
+      </c>
+      <c r="M9" t="str">
+        <v>0623456789</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>Youssef Alaoui</v>
+      </c>
+      <c r="R9" t="str">
+        <v>CCE002</v>
+      </c>
+      <c r="S9" t="str">
+        <v>YA333444</v>
+      </c>
+      <c r="T9" t="str">
+        <v>0656789012</v>
+      </c>
+      <c r="U9" t="str">
+        <v>2321</v>
+      </c>
+      <c r="V9" t="str">
+        <v>2025-12-29</v>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
         <v>1766961828533</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B10" t="str">
         <v>2025-12-28T22:43:48.533Z</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C10" t="str">
         <v>26/2025</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D10" t="str">
         <v>2025-12-03</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E10" t="str">
         <v>2025-12-19T23:43</v>
       </c>
-      <c r="F5">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G10" t="str">
         <v>SFI</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H10" t="str">
         <v>SFI Depot</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I10" t="str">
         <v>Point A, Point B, Point C</v>
       </c>
-      <c r="J5">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K10" t="str">
         <v>Ahmed Benali</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L10" t="str">
         <v>AB123456</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M10" t="str">
         <v>0612345678</v>
       </c>
-      <c r="N5" t="str">
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <v/>
-      </c>
-      <c r="P5">
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q10" t="str">
         <v>Omar Tazi</v>
       </c>
-      <c r="R5" t="str">
+      <c r="R10" t="str">
         <v>CCE001</v>
       </c>
-      <c r="S5" t="str">
+      <c r="S10" t="str">
         <v>OT111222</v>
       </c>
-      <c r="T5" t="str">
+      <c r="T10" t="str">
         <v>0645678901</v>
       </c>
-      <c r="U5" t="str">
+      <c r="U10" t="str">
         <v>1221</v>
       </c>
-      <c r="V5" t="str">
+      <c r="V10" t="str">
         <v>2025-12-12</v>
       </c>
-      <c r="W5" t="str">
+      <c r="W10" t="str">
         <v>121212</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="X10" t="str">
         <v>[{"name":"Produit A","quantity":"410","unit":"Kg"}]</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1766599794753</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2025-12-24T18:09:54.753Z</v>
+      </c>
+      <c r="C11" t="str">
+        <v>10/2025</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2025-12-24</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2025-12-24T07:09</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Client B</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Warehouse B</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Point D, Point E, Point F</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="str">
+        <v>oudra</v>
+      </c>
+      <c r="L11" t="str">
+        <v>p3608237</v>
+      </c>
+      <c r="M11" t="str">
+        <v>0567233893</v>
+      </c>
+      <c r="N11" t="str">
+        <v>sdgas556</v>
+      </c>
+      <c r="O11" t="str">
+        <v>volvo</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Youssef Alaoui</v>
+      </c>
+      <c r="R11" t="str">
+        <v>CCE002</v>
+      </c>
+      <c r="S11" t="str">
+        <v>YA333444</v>
+      </c>
+      <c r="T11" t="str">
+        <v>0656789012</v>
+      </c>
+      <c r="U11" t="str">
+        <v>23423432</v>
+      </c>
+      <c r="V11" t="str">
+        <v>2025-12-25</v>
+      </c>
+      <c r="W11" t="str">
+        <v>43324</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1766597982396</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2025-12-24T17:39:42.396Z</v>
+      </c>
+      <c r="C12" t="str">
+        <v>6/2025</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2025-12-25</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2025-12-06T18:21</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="str">
+        <v>ABC Company</v>
+      </c>
+      <c r="H12" t="str">
+        <v>ABC Warehouse</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Route 1, Route 2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="str">
+        <v>oudra</v>
+      </c>
+      <c r="L12" t="str">
+        <v>p3608237</v>
+      </c>
+      <c r="M12" t="str">
+        <v>0567233893</v>
+      </c>
+      <c r="N12" t="str">
+        <v>sdgas556</v>
+      </c>
+      <c r="O12" t="str">
+        <v>volvo</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>Omar Tazi</v>
+      </c>
+      <c r="R12" t="str">
+        <v>CCE001</v>
+      </c>
+      <c r="S12" t="str">
+        <v>OT111222</v>
+      </c>
+      <c r="T12" t="str">
+        <v>0645678901</v>
+      </c>
+      <c r="U12" t="str">
+        <v>234234</v>
+      </c>
+      <c r="V12" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="W12" t="str">
+        <v>34324</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>Antenne 3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1766596896691</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2025-12-24T17:21:36.691Z</v>
+      </c>
+      <c r="C13" t="str">
+        <v>6/2025</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2025-12-25</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2025-12-06T18:21</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="str">
+        <v>ABC Company</v>
+      </c>
+      <c r="H13" t="str">
+        <v>ABC Warehouse</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Route 1, Route 2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Ahmed Benali</v>
+      </c>
+      <c r="L13" t="str">
+        <v>AB123456</v>
+      </c>
+      <c r="M13" t="str">
+        <v>0612345678</v>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>Omar Tazi</v>
+      </c>
+      <c r="R13" t="str">
+        <v>CCE001</v>
+      </c>
+      <c r="S13" t="str">
+        <v>OT111222</v>
+      </c>
+      <c r="T13" t="str">
+        <v>0645678901</v>
+      </c>
+      <c r="U13" t="str">
+        <v>234234</v>
+      </c>
+      <c r="V13" t="str">
+        <v>2025-12-26</v>
+      </c>
+      <c r="W13" t="str">
+        <v>34324</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>Antenne 3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Y5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y13"/>
   </ignoredErrors>
 </worksheet>
 </file>